--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474320.197374111</v>
+        <v>3472432.615857712</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604323.0784568295</v>
+        <v>736448.7998410593</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>117.7722763833658</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>395.5935650014804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>43.31785343913998</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>21.74154667972162</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>104.7316651123448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>3.888834254466708</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>160.0917487801979</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.58605002777068</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.634490799661973</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784675</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>24.09124482852441</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>43.92096916831535</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>172.7067178467371</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>68.63638951034022</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>206.8064269214868</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>8.525532102718746</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>271.781864199688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273938</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,16 +2767,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151919</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>148.6393509384323</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>47.43385375076932</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.4345447789711</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>744.3346612638211</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C2" t="n">
-        <v>744.3346612638211</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D2" t="n">
-        <v>744.3346612638211</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="E2" t="n">
-        <v>744.3346612638211</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>453.5324414178194</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464726</v>
+        <v>528.604248231895</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464726</v>
+        <v>528.604248231895</v>
       </c>
       <c r="D4" t="n">
-        <v>97.69838933464726</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E4" t="n">
-        <v>97.69838933464726</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>97.69838933464726</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>528.604248231895</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>528.604248231895</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>528.604248231895</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>528.604248231895</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>528.604248231895</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>528.604248231895</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>528.604248231895</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1116.950579244872</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1116.950579244872</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1116.950579244872</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>731.1623266466281</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1503.550419308994</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>576.0542102320662</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1739.654191907093</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.691674966682</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.425976359931</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="E8" t="n">
-        <v>626.6377237616871</v>
+        <v>1276.335950057369</v>
       </c>
       <c r="F8" t="n">
-        <v>215.6518189720795</v>
+        <v>865.3500452677613</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>447.3862371659482</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>120.191517201951</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.654191907093</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4899,25 +4899,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482878</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>377.5443364482878</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>230.6543889503775</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>61.65458868870988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5033,52 +5033,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5115,16 +5115,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
         <v>2056.693778606511</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726215</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1274.661669737571</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>985.5330309511296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>985.5330309511296</v>
+        <v>1143.556541713749</v>
       </c>
       <c r="W13" t="n">
-        <v>696.1158609141689</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="X13" t="n">
-        <v>468.1263100161516</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726215</v>
+        <v>854.1393716767884</v>
       </c>
     </row>
     <row r="14">
@@ -5273,43 +5273,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5352,19 +5352,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.545030325236</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U16" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>605.6774166642626</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>605.6774166642626</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,28 +5580,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111987</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011508</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515096</v>
@@ -5774,7 +5774,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231263</v>
@@ -5820,37 +5820,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605665</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924717</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387938</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,28 +6008,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018332</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805455</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822448</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247852</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>813.9949833011162</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>524.5778132641556</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.3081347216947</v>
+        <v>750.8748194215243</v>
       </c>
       <c r="C31" t="n">
-        <v>433.1328170751585</v>
+        <v>637.6995017749882</v>
       </c>
       <c r="D31" t="n">
-        <v>338.7770429441935</v>
+        <v>543.3437276440234</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441935</v>
+        <v>451.1914993430011</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276537</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894285</v>
+        <v>1369.704507242555</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386955</v>
+        <v>1136.048202486966</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220488</v>
+        <v>963.8195168703191</v>
       </c>
       <c r="Y31" t="n">
-        <v>672.1957342705638</v>
+        <v>798.7878030081599</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,22 +6683,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6841,25 +6841,25 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6938,25 +6938,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,31 +7096,31 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,16 +7330,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7491,22 +7491,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527472</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7664,10 +7664,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525408</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254965</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649699</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849281</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>407.2149112442128</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>197.4563162298649</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.2166741555126</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>48.84084321165219</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>183.5012538134878</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>14.74113413690242</v>
+        <v>82.39383318338599</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>213.0220289556705</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>14.74113413690299</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.3938331833854</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>103.4982923853957</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>77.19486980261081</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.94685194456675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732279.8472214863</v>
+        <v>732279.8472214865</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541055</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="H2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="I2" t="n">
-        <v>664749.4015541043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541044</v>
-      </c>
       <c r="K2" t="n">
-        <v>691597.6334869594</v>
+        <v>691597.6334869597</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="M2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="N2" t="n">
         <v>697885.5043846406</v>
       </c>
-      <c r="N2" t="n">
-        <v>697885.5043846405</v>
-      </c>
       <c r="O2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846406</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284586</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028455</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759384</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758437</v>
+        <v>787.7936905759312</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758488</v>
+        <v>787.7936905759224</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759224</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759327</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477244</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739321</v>
+        <v>-114000.5920739316</v>
       </c>
       <c r="C6" t="n">
-        <v>475967.2871406124</v>
+        <v>475967.2871406127</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406124</v>
+        <v>475967.2871406127</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791587</v>
+        <v>46716.78631194484</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.281914812</v>
+        <v>571876.82278884</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148123</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.2819148122</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.2819148119</v>
+        <v>571876.8227888403</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.0627222189</v>
+        <v>395453.603596247</v>
       </c>
       <c r="K6" t="n">
-        <v>531854.4034491186</v>
+        <v>531835.9097111843</v>
       </c>
       <c r="L6" t="n">
-        <v>566620.9108318517</v>
+        <v>566620.910831852</v>
       </c>
       <c r="M6" t="n">
-        <v>442162.8023988815</v>
+        <v>442162.8023988819</v>
       </c>
       <c r="N6" t="n">
-        <v>576963.8176327187</v>
+        <v>576963.8176327188</v>
       </c>
       <c r="O6" t="n">
-        <v>576963.8176327186</v>
+        <v>576963.8176327188</v>
       </c>
       <c r="P6" t="n">
-        <v>532801.2123298732</v>
+        <v>532801.2123298731</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108371</v>
+        <v>12.92863350108348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>289.1037693583456</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>18.1906050193146</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.481659405224491e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>123.9919488199109</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>190.4039922702973</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>302.1443806293667</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>126.912511795568</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>208.2567046955522</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>253.6924212405971</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>86.34526621709057</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5363980421332</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.519424586149398e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,25 +31829,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>224.6051223555648</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508801</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,31 +32163,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,28 +32303,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467029</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33910,13 +33910,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33971,28 +33971,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34384,13 +34384,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>315.882135905433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
         <v>572.6057846157851</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111003</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>536.1982776746845</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629098</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>592.1206839096353</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N42" t="n">
-        <v>275.8731991608795</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>548.168101429018</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
